--- a/data/cms.xlsx
+++ b/data/cms.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,17 +474,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Search for a heavy resonance decaying to a top quark and a vector-like top quark at $ \sqrt{s}=13 $ TeV</t>
+          <t>Measurement of the cross section for electroweak production of a Z boson, a photon and two jets in proton-proton collisions at $\sqrt{s} =$ 13 TeV and constraints on anomalous quartic couplings</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10.1007/JHEP09(2017)053</t>
+          <t>10.1007/JHEP06(2020)076</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,81 +493,81 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2230</v>
+        <v>2313</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Search for New Physics in Events with Same-Sign Dileptons and Jets in pp Collisions at $\sqrt{s}$ = 8 TeV</t>
+          <t>A deep learning approach to cosmological dark energy models</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Quintero, Maryi Alejandra Carvajal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.1007/JHEP01(2014)163</t>
+          <t>10.1088/1475-7516/2020/03/008</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>JCAP</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2210</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Measurements of $t\bar{t}$ Spin Correlations and Top-Quark Polarization Using Dilepton Final States in $pp$ Collisions at $\sqrt{s}$ = 7 TeV</t>
+          <t>Detector Control System for the GE1/1 slice test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Jaramillo, J.; Ramirez, F.; Ruiz, J.D.; Vanegas, N.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.112.182001</t>
+          <t>10.1088/1748-0221/15/05/P05023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>JINST</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2202</v>
+        <v>169</v>
       </c>
       <c r="F4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Search for anomalous triple gauge couplings in WW and WZ production in lepton + jet events in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Investigation into the event-activity dependence of $\Upsilon$(nS) relative production in proton-proton collisions at $ \sqrt{s} $ = 7 TeV</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10.1007/JHEP12(2019)062</t>
+          <t>10.1007/JHEP11(2020)001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2342</v>
+        <v>2312</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Search for long-lived particles using delayed photons in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>A search for the standard model Higgs boson decaying to charm quarks</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -608,28 +608,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.100.112003</t>
+          <t>10.1007/JHEP03(2020)131</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2314</v>
+        <v>2300</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Search for supersymmetry using Higgs boson to diphoton decays at $\sqrt{s}$ = 13 TeV</t>
+          <t>Measurement of properties of B$^0_\mathrm{s}\to\mu^+\mu^-$ decays and search for B$^0\to\mu^+\mu^-$ with the CMS experiment</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.1007/JHEP11(2019)109</t>
+          <t>10.1007/JHEP04(2020)188</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,50 +648,50 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2333</v>
+        <v>2319</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Search for lepton flavour violating decays of a neutral heavy Higgs boson to $\mu\tau$ and e$\tau$ in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Search for a light charged Higgs boson in the H$^\pm$ $\to $ cs channel in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10.1007/JHEP03(2020)103</t>
+          <t>10.1103/PhysRevD.102.072001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2342</v>
+        <v>2353</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Determination of the strong coupling constant $\alpha_{S}(m_\mathrm{Z})$ from measurements of inclusive W$^\pm$ and Z boson production cross sections in proton-proton collisions at $ \sqrt{\mathrm{s}} $ = 7 and 8 TeV</t>
+          <t>Measurement of the top quark forward-backward production asymmetry and the anomalous chromoelectric and chromomagnetic moments in pp collisions at $ \sqrt{s} $ = 13 TeV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.1007/JHEP06(2020)018</t>
+          <t>10.1007/JHEP06(2020)146</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -710,19 +710,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Constraints on the $\chi_\mathrm{c1}$ versus $\chi_\mathrm{c2}$ Polarizations in Proton-Proton Collisions at $\sqrt{s} =$ 8 TeV</t>
+          <t>Measurement of quark- and gluon-like jet fractions using jet charge in PbPb and pp collisions at 5.02 TeV</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -732,28 +732,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.124.162002</t>
+          <t>10.1007/JHEP07(2020)115</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2310</v>
+        <v>2301</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Search for Higgs and Z boson decays to J/ψ or Y pairs in the four-muon final state in proton-proton collisions at s=13TeV</t>
+          <t>Combined search for supersymmetry with photons in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2019.134811</t>
+          <t>10.1016/j.physletb.2019.135183</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -772,19 +772,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Measurement of the $\mathrm{t\bar{t}}\mathrm{b\bar{b}}$ production cross section in the all-jet final state in pp collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Calibration of the CMS hadron calorimeters using proton-proton collision data at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -794,69 +794,69 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135285</t>
+          <t>10.1088/1748-0221/15/05/P05002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>JINST</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2335</v>
+        <v>2374</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Search for a charged Higgs boson decaying into top and bottom quarks in events with electrons or muons in proton-proton collisions at $ \sqrt{\mathrm{s}} $ = 13 TeV</t>
+          <t>Direct measurement of the muonic content of extensive air showers between $\mathbf { 2\times 10^{17}}$ and $\mathbf {2\times 10^{18}}~$eV at the Pierre Auger Observatory</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Tapia, A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10.1007/JHEP01(2020)096</t>
+          <t>10.1140/epjc/s10052-020-8055-y</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2337</v>
+        <v>372</v>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Observation of the Production of Three Massive Gauge Bosons at $\sqrt {s}$ =13  TeV</t>
+          <t>Search for Supersymmetry with a Compressed Mass Spectrum in Events with a Soft $\tau$ Lepton, a Highly Energetic Jet, and Large Missing Transverse Momentum in Proton-Proton Collisions at $\sqrt{s}=$  TeV</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.125.151802</t>
+          <t>10.1103/PhysRevLett.124.041803</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -865,50 +865,50 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2384</v>
+        <v>2318</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Search for MSSM Higgs bosons decaying to μ + μ − in proton-proton collisions at s=13TeV</t>
+          <t>Search for physics beyond the standard model in multilepton final states in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2019.134992</t>
+          <t>10.1007/JHEP03(2020)051</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2317</v>
+        <v>2301</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A deep neural network for simultaneous estimation of b jet energy and resolution</t>
+          <t>Measurement of the cross section for $\text{t}\bar{\text{t}}$ production with additional jets and b jets in pp collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -918,28 +918,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10.1007/s41781-020-00041-z</t>
+          <t>10.1007/JHEP07(2020)125</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Comput.Softw.Big Sci.</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>2299</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Study of the $ {\mathrm{B}}^{+}\to \mathrm{J}/\psi \overline{\Lambda}\mathrm{p} $ decay in proton-proton collisions at $ \sqrt{s} $ = 8 TeV</t>
+          <t>Search for electroweak production of a vector-like T quark using fully hadronic final states</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10.1007/JHEP12(2019)100</t>
+          <t>10.1007/JHEP01(2020)036</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -958,81 +958,81 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Measurement of the top quark polarization and $\mathrm{t\bar{t}}$ spin correlations using dilepton final states in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Search for supersymmetry in proton-proton collisions at $\sqrt{s} =$ 13 TeV in events with high-momentum Z bosons and missing transverse momentum</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.100.072002</t>
+          <t>10.1007/JHEP09(2020)149</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2286</v>
+        <v>2361</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>W$^+$W$^-$ boson pair production in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Multi-component scalar dark matter from a $Z_N$ symmetry: a systematic analysis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Zapata, Óscar</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.102.092001</t>
+          <t>10.1007/JHEP03(2020)109</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2384</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Search for a heavy pseudoscalar Higgs boson decaying into a 125 GeV Higgs boson and a Z boson in final states with two tau and two light leptons at $\sqrt{s}=$ 13 TeV</t>
+          <t>A measurement of the Higgs boson mass in the diphoton decay channel</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1042,28 +1042,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10.1007/JHEP03(2020)065</t>
+          <t>10.1016/j.physletb.2020.135425</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2340</v>
+        <v>2294</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Measurement of the top quark mass in the dileptonic $t\bar{t}$ decay channel using the mass observables $M_{b\ell}$, $M_{T2}$, and $M_{b\ell\nu}$ in pp collisions at $\sqrt{s}=8$ TeV</t>
+          <t>Measurement of electroweak production of a $\mathrm{W} $ boson in association with two jets in proton–proton collisions at $\sqrt{s}=13\,\text {Te}\text {V} $</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1073,28 +1073,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.96.032002</t>
+          <t>10.1140/epjc/s10052-019-7585-7</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2231</v>
+        <v>2285</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pileup mitigation at CMS in 13 TeV data</t>
+          <t>Measurement of differential cross sections and charge ratios for t-channel single top quark production in proton–proton collisions at $\sqrt{s}=13\,\text {Te}\text {V}$</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1104,28 +1104,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10.1088/1748-0221/15/09/P09018</t>
+          <t>10.1140/epjc/s10052-020-7858-1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>JINST</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2305</v>
+        <v>2339</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Search for dijet resonances using events with three jets in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>A multi-dimensional search for new heavy resonances decaying to boosted WW, WZ, or ZZ boson pairs in the dijet final state at 13 TeV</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1135,38 +1135,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135448</t>
+          <t>10.1140/epjc/s10052-020-7773-5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2301</v>
+        <v>2336</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Measurement of the top quark pair production cross section in dilepton final states containing one $\tau$ lepton in pp collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Search for a light pseudoscalar Higgs boson in the boosted $\mu\mu\tau\tau$ final state in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10.1007/JHEP02(2020)191</t>
+          <t>10.1007/JHEP08(2020)139</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1175,29 +1175,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2318</v>
+        <v>2376</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Measurement of the average very forward energy as a function of the track multiplicity at central pseudorapidities in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Searches for physics beyond the standard model with the $M_\mathrm{T2}$ variable in hadronic final states with and without disappearing tracks in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-019-7402-3</t>
+          <t>10.1140/epjc/s10052-019-7493-x</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1206,69 +1206,69 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2320</v>
+        <v>2313</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Search for supersymmetry in final states with photons and missing transverse momentum in proton-proton collisions at 13 TeV</t>
+          <t>Measurements with silicon photomultipliers of dose-rate effects in the radiation damage of plastic scintillator tiles in the CMS hadron endcap calorimeter</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10.1007/JHEP06(2019)143</t>
+          <t>10.1088/1748-0221/15/06/P06009</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>JINST</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2284</v>
+        <v>2373</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Measurement of CKM matrix elements in single top quark $t$-channel production in proton-proton collisions at $\sqrt{s} = $ 13 TeV</t>
+          <t>Measurement of B$_\mathrm{c}$(2S)$^+$ and B$_\mathrm{c}^*$(2S)$^+$ cross section ratios in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Rodriguez, M; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135609</t>
+          <t>10.1103/PhysRevD.102.092007</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2304</v>
+        <v>2363</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1280,38 +1280,38 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Search for long-lived particles using nonprompt jets and missing transverse momentum with proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Performance of prototype GE1 ∕ 1 chambers for the CMS muon spectrometer upgrade</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Jaramillo, J.; Ramirez, F.; Ruiz, J.D.; Vanegas, N.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2019.134876</t>
+          <t>10.1016/j.nima.2020.164104</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Nucl.Instrum.Meth.A</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2334</v>
+        <v>168</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Search for top squark pair production in a final state with two tau leptons in proton-proton collisions at $ \sqrt{s} =$ 13 TeV</t>
+          <t>Combination of the W boson polarization measurements in top quark decays using ATLAS and CMS data at $\sqrt{s} =$ 8 TeV</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10.1007/JHEP02(2020)015</t>
+          <t>10.1007/JHEP08(2020)051</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2326</v>
+        <v>5246</v>
       </c>
       <c r="F29" t="n">
         <v>2</v>
@@ -1342,122 +1342,122 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Study of excited $\Lambda_\mathrm{b}^0$ states decaying to $\Lambda_\mathrm{b}^0\pi^+\pi^-$ in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Measurement of $\mathrm{t\bar t}$ normalised multi-differential cross sections in pp collisions at $\sqrt s=13$ TeV, and simultaneous determination of the strong coupling strength, top quark pole mass, and parton distribution functions</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ruiz Alvarez, José David</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135345</t>
+          <t>10.1140/epjc/s10052-020-7917-7</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2312</v>
+        <v>2282</v>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Search for physics beyond the standard model in events with jets and two same-sign or at least three charged leptons in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Constraining gravity theories with the gravitational stability mass</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Santa Vélez, Camilo; Enea Romano, Antonio</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-020-8168-3</t>
+          <t>10.1088/1475-7516/2020/06/022</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>JCAP</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2293</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Observation of the B$^0_\mathrm{s}\to $X(3872)$\phi$ decay</t>
+          <t>Search for direct pair production of supersymmetric partners to the $\tau$ lepton in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.125.152001</t>
+          <t>10.1140/epjc/s10052-020-7739-7</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2370</v>
+        <v>2338</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Search for resonant pair production of Higgs bosons in the $bbZZ$ channel in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Performance of the CMS Level-1 trigger in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.102.032003</t>
+          <t>10.1088/1748-0221/15/10/P10017</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>JINST</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2383</v>
+        <v>2342</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1466,69 +1466,69 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Observation of the $\Lambda_\mathrm{b}^0 \to$ J/$\psi \Lambda \phi$ decay in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Five Texture Zeros for Dirac Neutrino Mass Matrices</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ponce, William A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135203</t>
+          <t>10.1088/1361-6471/abb029</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>J.Phys.G</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2302</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Search for disappearing tracks in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Lepton dark matter portal in the inert Zee model</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Gaviria, Alexandra; Longas, Robinson; Rivera, Andrés</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135502</t>
+          <t>10.1142/S0217751X20501900</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Int.J.Mod.Phys.A</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2364</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Evidence for $\text {W}\text {W}$ production from double-parton interactions in proton–proton collisions at $\sqrt{s} = 13 \,\text {TeV} $</t>
+          <t>Measurements of $\mathrm{t\bar{t}}H$ Production and the CP Structure of the Yukawa Interaction between the Higgs Boson and Top Quark in the Diphoton Decay Channel</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1538,90 +1538,90 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-019-7541-6</t>
+          <t>10.1103/PhysRevLett.125.061801</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2340</v>
+        <v>2326</v>
       </c>
       <c r="F36" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" t="n">
         <v>13</v>
-      </c>
-      <c r="G36" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Search for supersymmetry in proton-proton collisions at 13 TeV in final states with jets and missing transverse momentum</t>
+          <t>Measurements of production cross sections of WZ and same-sign WW boson pairs in association with two jets in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10.1007/JHEP10(2019)244</t>
+          <t>10.1016/j.physletb.2020.135710</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2326</v>
+        <v>2384</v>
       </c>
       <c r="F37" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G37" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Search for low mass vector resonances decaying into quark-antiquark pairs in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Coordinate independent approach to the calculation of the effects of local structure on the luminosity distance</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Vallejo-Peña, Sergio Andrés; Romano, Antonio Enea</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.100.112007</t>
+          <t>10.1088/1475-7516/2020/03/023</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>JCAP</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2338</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Search for heavy Higgs bosons decaying to a top quark pair in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>The production of isolated photons in PbPb and pp collisions at $\sqrt{s_\mathrm{NN}} =$ 5.02 TeV</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10.1007/JHEP04(2020)171</t>
+          <t>10.1007/JHEP07(2020)116</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2342</v>
+        <v>2308</v>
       </c>
       <c r="F39" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Search for high mass dijet resonances with a new background prediction method in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Identification of heavy, energetic, hadronically decaying particles using machine-learning techniques</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1662,59 +1662,59 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10.1007/JHEP05(2020)033</t>
+          <t>10.1088/1748-0221/15/06/P06005</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>JINST</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="F40" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G40" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Search for $ \mathrm{t}\overline{\mathrm{t}} $ resonances in highly boosted lepton+jets and fully hadronic final states in proton-proton collisions at $ \sqrt{s}=13 $ TeV</t>
+          <t>Study of J/$\psi$ meson production inside jets in pp collisions at $\sqrt{s} =$ 8 TeV</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10.1007/JHEP07(2017)001</t>
+          <t>10.1016/j.physletb.2020.135409</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2197</v>
+        <v>2337</v>
       </c>
       <c r="F41" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Performance of the reconstruction and identification of high-momentum muons in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Search for dark matter particles produced in association with a Higgs boson in proton-proton collisions at $ \sqrt{\mathrm{s}} $ = 13 TeV</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1724,28 +1724,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10.1088/1748-0221/15/02/P02027</t>
+          <t>10.1007/JHEP03(2020)025</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>JINST</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2302</v>
+        <v>2335</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Search for a heavy Higgs boson decaying to a pair of W bosons in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Measurement of the $\Upsilon$(1S) pair production cross section and search for resonances decaying to $\Upsilon$(1S)$\mu^+\mu^-$ in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1755,28 +1755,28 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10.1007/JHEP03(2020)034</t>
+          <t>10.1016/j.physletb.2020.135578</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2342</v>
+        <v>2301</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G43" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Search for new neutral Higgs bosons through the H$\to$ ZA $\to \ell^{+}\ell^{-} \mathrm{b\bar{b}}$ process in pp collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Search for an excited lepton that decays via a contact interaction to a lepton and two jets in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10.1007/JHEP03(2020)055</t>
+          <t>10.1007/JHEP05(2020)052</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1795,19 +1795,19 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2335</v>
+        <v>2340</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Search for production of four top quarks in final states with same-sign or multiple leptons in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Measurement of the associated production of a $Z$ boson with charm or bottom quark jets in proton-proton collisions at $\sqrt {s}$=13  TeV</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1817,90 +1817,90 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-019-7593-7</t>
+          <t>10.1103/PhysRevD.102.032007</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Search for decays of the 125 GeV Higgs boson into a Z boson and a $\rho$ or $\phi$ meson</t>
+          <t>Measurement of the Jet Mass Distribution and Top Quark Mass in Hadronic Decays of Boosted Top Quarks in $pp$ Collisions at $\sqrt{s} =$  TeV</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10.1007/JHEP11(2020)039</t>
+          <t>10.1103/PhysRevLett.124.202001</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2384</v>
+        <v>2319</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Search for dark matter produced in association with heavy-flavor quark pairs in proton-proton collisions at $\sqrt{s}=13$ TeV</t>
+          <t>Measurement of top quark pair production in association with a Z boson in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-017-5317-4</t>
+          <t>10.1007/JHEP03(2020)056</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2194</v>
+        <v>2335</v>
       </c>
       <c r="F47" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G47" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Measurement of the cross section for electroweak production of a Z boson, a photon and two jets in proton-proton collisions at $\sqrt{s} =$ 13 TeV and constraints on anomalous quartic couplings</t>
+          <t>Search for supersymmetry in pp collisions at $\sqrt{s}=$ 13 TeV with 137 fb$^{-1}$ in final states with a single lepton using the sum of masses of large-radius jets</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1910,69 +1910,69 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10.1007/JHEP06(2020)076</t>
+          <t>10.1103/PhysRevD.101.052010</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2313</v>
+        <v>2303</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Measurement of quark- and gluon-like jet fractions using jet charge in PbPb and pp collisions at 5.02 TeV</t>
+          <t>Search for light pseudoscalar boson pairs produced from decays of the 125 GeV Higgs boson in final states with two muons and two nearby tracks in pp collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ruiz Alvarez, José David</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10.1007/JHEP07(2020)115</t>
+          <t>10.1016/j.physletb.2019.135087</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2301</v>
+        <v>2285</v>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Search for supersymmetry with a compressed mass spectrum in the vector boson fusion topology with 1-lepton and 0-lepton final states in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Search for direct top squark pair production in events with one lepton, jets, and missing transverse momentum at 13 TeV with the CMS experiment</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10.1007/JHEP08(2019)150</t>
+          <t>10.1007/JHEP05(2020)032</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1981,50 +1981,50 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2287</v>
+        <v>2318</v>
       </c>
       <c r="F50" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Search for Low-Mass Quark-Antiquark Resonances Produced in Association with a Photon at $\sqrt {s}$ =13  TeV</t>
+          <t>Conditions on the pion electroproduction and photoproduction form factors in the soft-pion limit</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Quirós, Juan José</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.123.231803</t>
+          <t>10.1103/PhysRevC.101.054604</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>Phys.Rev.C</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2335</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Combined search for supersymmetry with photons in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Search for physics beyond the standard model in events with jets and two same-sign or at least three charged leptons in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2034,38 +2034,38 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2019.135183</t>
+          <t>10.1140/epjc/s10052-020-8168-3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2340</v>
+        <v>2293</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Measurement of top quark pair production in association with a Z boson in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Search for decays of the 125 GeV Higgs boson into a Z boson and a $\rho$ or $\phi$ meson</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10.1007/JHEP03(2020)056</t>
+          <t>10.1007/JHEP11(2020)039</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2074,19 +2074,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2335</v>
+        <v>2384</v>
       </c>
       <c r="F53" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Measurement of the cross section for $\text{t}\bar{\text{t}}$ production with additional jets and b jets in pp collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Search for new neutral Higgs bosons through the H$\to$ ZA $\to \ell^{+}\ell^{-} \mathrm{b\bar{b}}$ process in pp collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10.1007/JHEP07(2020)125</t>
+          <t>10.1007/JHEP03(2020)055</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2105,50 +2105,50 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2299</v>
+        <v>2335</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A search for the standard model Higgs boson decaying to charm quarks</t>
+          <t>A Search for Ultra-high-energy Neutrinos from TXS 0506+056 Using the Pierre Auger Observatory</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Tapia, Alex</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10.1007/JHEP03(2020)131</t>
+          <t>10.3847/1538-4357/abb476</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Astrophys.J.</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2300</v>
+        <v>366</v>
       </c>
       <c r="F55" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Search for vector-like leptons in multilepton final states in proton-proton collisions at $\sqrt{s}$ = 13 TeV</t>
+          <t>Search for dijet resonances using events with three jets in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2158,28 +2158,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.100.052003</t>
+          <t>10.1016/j.physletb.2020.135448</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2336</v>
+        <v>2301</v>
       </c>
       <c r="F56" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G56" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Search for the production of W$^\pm$W$^\pm$W$^\mp$ events at $\sqrt{s} =$ 13 TeV</t>
+          <t>Observation of the $\Lambda_\mathrm{b}^0 \to$ J/$\psi \Lambda \phi$ decay in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2189,28 +2189,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.100.012004</t>
+          <t>10.1016/j.physletb.2020.135203</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2337</v>
+        <v>2302</v>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Calibration of the CMS hadron calorimeters using proton-proton collision data at $\sqrt{s} =$ 13 TeV</t>
+          <t>Measurement of CKM matrix elements in single top quark $t$-channel production in proton-proton collisions at $\sqrt{s} = $ 13 TeV</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2220,19 +2220,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10.1088/1748-0221/15/05/P05002</t>
+          <t>10.1016/j.physletb.2020.135609</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>JINST</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2374</v>
+        <v>2304</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Measurement of properties of B$^0_\mathrm{s}\to\mu^+\mu^-$ decays and search for B$^0\to\mu^+\mu^-$ with the CMS experiment</t>
+          <t>Search for heavy Higgs bosons decaying to a top quark pair in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10.1007/JHEP04(2020)188</t>
+          <t>10.1007/JHEP04(2020)171</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2260,19 +2260,19 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2319</v>
+        <v>2342</v>
       </c>
       <c r="F59" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G59" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Search for electroweak production of a vector-like T quark using fully hadronic final states</t>
+          <t>Pileup mitigation at CMS in 13 TeV data</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2282,28 +2282,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10.1007/JHEP01(2020)036</t>
+          <t>10.1088/1748-0221/15/09/P09018</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>JINST</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2335</v>
+        <v>2305</v>
       </c>
       <c r="F60" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Search for physics beyond the standard model in multilepton final states in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Measurement of the $\mathrm{t\bar{t}}\mathrm{b\bar{b}}$ production cross section in the all-jet final state in pp collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2313,121 +2313,121 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10.1007/JHEP03(2020)051</t>
+          <t>10.1016/j.physletb.2020.135285</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2301</v>
+        <v>2335</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G61" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Measurements of differential Z boson production cross sections in proton-proton collisions at $ \sqrt{s} $ = 13 TeV</t>
+          <t>W$^+$W$^-$ boson pair production in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10.1007/JHEP12(2019)061</t>
+          <t>10.1103/PhysRevD.102.092001</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2313</v>
+        <v>2384</v>
       </c>
       <c r="F62" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Measurement of Higgs Boson Production and Properties in the WW Decay Channel with Leptonic Final States</t>
+          <t>Search for Long-Lived Heavy Neutrinos at the LHC with a VBF Trigger</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Ruiz-Álvarez, J.D.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10.1007/JHEP01(2014)096</t>
+          <t>10.1140/epjc/s10052-020-8188-z</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2207</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>433</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>265</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Measurement of Higher-Order Harmonic Azimuthal Anisotropy in PbPb Collisions at $\sqrt{s_{NN}}$ = 2.76 TeV</t>
+          <t>Search for lepton flavour violating decays of a neutral heavy Higgs boson to $\mu\tau$ and e$\tau$ in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevC.89.044906</t>
+          <t>10.1007/JHEP03(2020)103</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Phys.Rev.C</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2202</v>
+        <v>2342</v>
       </c>
       <c r="F64" t="n">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="G64" t="n">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Search for Supersymmetry with a Compressed Mass Spectrum in Events with a Soft $\tau$ Lepton, a Highly Energetic Jet, and Large Missing Transverse Momentum in Proton-Proton Collisions at $\sqrt{s}=$  TeV</t>
+          <t>Search for a charged Higgs boson decaying into top and bottom quarks in events with electrons or muons in proton-proton collisions at $ \sqrt{\mathrm{s}} $ = 13 TeV</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2437,90 +2437,90 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.124.041803</t>
+          <t>10.1007/JHEP01(2020)096</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2318</v>
+        <v>2337</v>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Searches for Light- and Heavy-Flavour Three-Jet Resonances in pp Collisions at $\sqrt{s} = 8$ TeV</t>
+          <t>A deep neural network for simultaneous estimation of b jet energy and resolution</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2014.01.049</t>
+          <t>10.1007/s41781-020-00041-z</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Comput.Softw.Big Sci.</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2214</v>
+        <v>2299</v>
       </c>
       <c r="F66" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Search for a light pseudoscalar Higgs boson in the boosted $\mu\mu\tau\tau$ final state in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Dirac neutrino mass generation from a Majorana messenger</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Calle, Julian; Restrepo, Diego; Zapata, Óscar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10.1007/JHEP08(2020)139</t>
+          <t>10.1103/PhysRevD.101.035004</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2376</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Search for a light charged Higgs boson in the H$^\pm$ $\to $ cs channel in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Observation of the Production of Three Massive Gauge Bosons at $\sqrt {s}$ =13  TeV</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2530,59 +2530,59 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.102.072001</t>
+          <t>10.1103/PhysRevLett.125.151802</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2353</v>
+        <v>2384</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Searches for physics beyond the standard model with the $M_\mathrm{T2}$ variable in hadronic final states with and without disappearing tracks in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Phenomenological consistency of the singlet-triplet scotogenic model</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Restrepo, Diego; Rivera, Andrés</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-019-7493-x</t>
+          <t>10.1007/JHEP04(2020)134</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2313</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G69" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Measurement of the top quark forward-backward production asymmetry and the anomalous chromoelectric and chromomagnetic moments in pp collisions at $ \sqrt{s} $ = 13 TeV</t>
+          <t>Search for a heavy pseudoscalar Higgs boson decaying into a 125 GeV Higgs boson and a Z boson in final states with two tau and two light leptons at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10.1007/JHEP06(2020)146</t>
+          <t>10.1007/JHEP03(2020)065</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2601,122 +2601,122 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2292</v>
+        <v>2340</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Search for new physics in the monophoton final state in proton-proton collisions at $ \sqrt{s}=13 $ TeV</t>
+          <t>Constraints on the $\chi_\mathrm{c1}$ versus $\chi_\mathrm{c2}$ Polarizations in Proton-Proton Collisions at $\sqrt{s} =$ 8 TeV</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10.1007/JHEP10(2017)073</t>
+          <t>10.1103/PhysRevLett.124.162002</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2226</v>
+        <v>2310</v>
       </c>
       <c r="F71" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="G71" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A measurement of the Higgs boson mass in the diphoton decay channel</t>
+          <t>Minimal $Z′$ models for flavor anomalies</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ponce, William A.; Rodríguez, Oscar</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135425</t>
+          <t>10.1088/1361-6471/ab8d8d</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>J.Phys.G</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2294</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Search for the Standard Model Higgs Boson Produced in Association with a W or a Z Boson and Decaying to Bottom Quarks</t>
+          <t>Determination of the strong coupling constant $\alpha_{S}(m_\mathrm{Z})$ from measurements of inclusive W$^\pm$ and Z boson production cross sections in proton-proton collisions at $ \sqrt{\mathrm{s}} $ = 7 and 8 TeV</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.89.012003</t>
+          <t>10.1007/JHEP06(2020)018</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2220</v>
+        <v>2295</v>
       </c>
       <c r="F73" t="n">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Search for associated production of dark matter with a Higgs boson decaying to $ \mathrm{b}\overline{\mathrm{b}} $ or $\gamma \gamma$ at $ \sqrt{s}=13$ TeV</t>
+          <t>Search for high mass dijet resonances with a new background prediction method in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10.1007/JHEP10(2017)180</t>
+          <t>10.1007/JHEP05(2020)033</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2725,60 +2725,60 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2233</v>
+        <v>2301</v>
       </c>
       <c r="F74" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="G74" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Investigation into the event-activity dependence of $\Upsilon$(nS) relative production in proton-proton collisions at $ \sqrt{s} $ = 7 TeV</t>
+          <t>Search for resonant pair production of Higgs bosons in the $bbZZ$ channel in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10.1007/JHEP11(2020)001</t>
+          <t>10.1103/PhysRevD.102.032003</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2312</v>
+        <v>2383</v>
       </c>
       <c r="F75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Search for supersymmetry in proton-proton collisions at $\sqrt{s} =$ 13 TeV in events with high-momentum Z bosons and missing transverse momentum</t>
+          <t>Search for top squark pair production in a final state with two tau leptons in proton-proton collisions at $ \sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10.1007/JHEP09(2020)149</t>
+          <t>10.1007/JHEP02(2020)015</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2787,91 +2787,91 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2361</v>
+        <v>2326</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Search for $W$ boson decays to three charged pions</t>
+          <t>Performance of the reconstruction and identification of high-momentum muons in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.122.151802</t>
+          <t>10.1088/1748-0221/15/02/P02027</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>JINST</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2280</v>
+        <v>2302</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Search for invisible decays of a Higgs boson produced through vector boson fusion in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Mixed higher-order anisotropic flow and nonlinear response coefficients of charged particles in $\mathrm {PbPb}$ collisions at $\sqrt{\smash [b]{s_{_{\mathrm {NN}}}}} = 2.76$ and 5.02$\,\text {TeV}$</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2019.04.025</t>
+          <t>10.1140/epjc/s10052-020-7834-9</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2327</v>
+        <v>2344</v>
       </c>
       <c r="F78" t="n">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="G78" t="n">
-        <v>111</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Particle-flow reconstruction and global event description with the CMS detector</t>
+          <t>Reconstruction of signal amplitudes in the CMS electromagnetic calorimeter in the presence of overlapping proton-proton interactions</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10.1088/1748-0221/12/10/P10003</t>
+          <t>10.1088/1748-0221/15/10/P10002</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2880,205 +2880,205 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2229</v>
+        <v>2371</v>
       </c>
       <c r="F79" t="n">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Measurements of jet charge with dijet events in pp collisions at $\sqrt{s}=8$ TeV</t>
+          <t>Thermodynamics of $f(R)$ Theories of Gravity</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Peralta, C.D.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10.1007/JHEP10(2017)131</t>
+          <t>10.1088/1475-7516/2020/06/053</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>JCAP</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2228</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Measurement of double-differential cross sections for top quark pair production in pp collisions at $\sqrt{s} = 8$ $\,\text {TeV}$ and impact on parton distribution functions</t>
+          <t>Running of the top quark mass from proton-proton collisions at $\sqrt{s} =$ 13TeV</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-017-4984-5</t>
+          <t>10.1016/j.physletb.2020.135263</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2231</v>
+        <v>2318</v>
       </c>
       <c r="F81" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G81" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Search for light pseudoscalar boson pairs produced from decays of the 125 GeV Higgs boson in final states with two muons and two nearby tracks in pp collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Search for charged Higgs bosons decaying into a top and a bottom quark in the all-jet final state of pp collisions at $ \sqrt{s} $ = 13 TeV</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2019.135087</t>
+          <t>10.1007/JHEP07(2020)126</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2285</v>
+        <v>2318</v>
       </c>
       <c r="F82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G82" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Search for supersymmetry in pp collisions at $\sqrt{s}=$ 13 TeV with 137 fb$^{-1}$ in final states with a single lepton using the sum of masses of large-radius jets</t>
+          <t>The Z$_{5}$ model of two-component dark matter</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Zapata, Óscar</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.101.052010</t>
+          <t>10.1007/JHEP09(2020)030</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2303</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Measurement of charged pion, kaon, and proton production in proton-proton collisions at $\sqrt{s}=13$ TeV</t>
+          <t>Search for a Narrow Resonance Lighter than 200 GeV Decaying to a Pair of Muons in Proton-Proton Collisions at $\sqrt{s} =$  TeV</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.96.112003</t>
+          <t>10.1103/PhysRevLett.124.131802</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2228</v>
+        <v>2300</v>
       </c>
       <c r="F84" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Search for Supersymmetry in pp Collisions at $\sqrt{s}$=8 TeV in Events with a Single Lepton, Large Jet Multiplicity, and Multiple b Jets</t>
+          <t>The effect of anisotropic stress and non-adiabatic pressure perturbations on the evolution of the comoving curvature perturbation</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Romano, Antonio Enea; Vallejo-Peña, Sergio Andrés</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2014.04.023</t>
+          <t>10.1088/1361-6382/ab537e</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Class.Quant.Grav.</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2211</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Search for Physics beyond the Standard Model in Events with Overlapping Photons and Jets</t>
+          <t>Search for production of four top quarks in final states with same-sign or multiple leptons in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3088,28 +3088,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.123.241801</t>
+          <t>10.1140/epjc/s10052-019-7593-7</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2339</v>
+        <v>2324</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Search for dark photons in decays of Higgs bosons produced in association with Z bosons in proton-proton collisions at $ \sqrt{s} $ = 13 TeV</t>
+          <t>Evidence for $\text {W}\text {W}$ production from double-parton interactions in proton–proton collisions at $\sqrt{s} = 13 \,\text {TeV} $</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3119,59 +3119,59 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10.1007/JHEP10(2019)139</t>
+          <t>10.1140/epjc/s10052-019-7541-6</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2324</v>
+        <v>2340</v>
       </c>
       <c r="F87" t="n">
+        <v>13</v>
+      </c>
+      <c r="G87" t="n">
         <v>8</v>
-      </c>
-      <c r="G87" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Search for charged Higgs bosons decaying into a top and a bottom quark in the all-jet final state of pp collisions at $ \sqrt{s} $ = 13 TeV</t>
+          <t>Triple-GEM discharge probability studies at CHARM: simulations and experimental results</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Jaramillo, J.; Ramirez, F.; Ruiz, J.D.; Vanegas, N.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10.1007/JHEP07(2020)126</t>
+          <t>10.1088/1748-0221/15/10/P10013</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>JINST</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2318</v>
+        <v>176</v>
       </c>
       <c r="F88" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Measurements with silicon photomultipliers of dose-rate effects in the radiation damage of plastic scintillator tiles in the CMS hadron endcap calorimeter</t>
+          <t>Search for a heavy Higgs boson decaying to a pair of W bosons in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3181,28 +3181,28 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10.1088/1748-0221/15/06/P06009</t>
+          <t>10.1007/JHEP03(2020)034</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>JINST</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2373</v>
+        <v>2342</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mixed higher-order anisotropic flow and nonlinear response coefficients of charged particles in $\mathrm {PbPb}$ collisions at $\sqrt{\smash [b]{s_{_{\mathrm {NN}}}}} = 2.76$ and 5.02$\,\text {TeV}$</t>
+          <t>Search for disappearing tracks in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3212,28 +3212,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-020-7834-9</t>
+          <t>10.1016/j.physletb.2020.135502</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2344</v>
+        <v>2364</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Search for direct top squark pair production in events with one lepton, jets, and missing transverse momentum at 13 TeV with the CMS experiment</t>
+          <t>Study of excited $\Lambda_\mathrm{b}^0$ states decaying to $\Lambda_\mathrm{b}^0\pi^+\pi^-$ in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3243,472 +3243,472 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10.1007/JHEP05(2020)032</t>
+          <t>10.1016/j.physletb.2020.135345</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="F91" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G91" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Measurement of electroweak production of a $\mathrm{W} $ boson in association with two jets in proton–proton collisions at $\sqrt{s}=13\,\text {Te}\text {V} $</t>
+          <t>Measurement of the top quark pair production cross section in dilepton final states containing one $\tau$ lepton in pp collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-019-7585-7</t>
+          <t>10.1007/JHEP02(2020)191</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2285</v>
+        <v>2318</v>
       </c>
       <c r="F92" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Running of the top quark mass from proton-proton collisions at $\sqrt{s} =$ 13TeV</t>
+          <t>Observation of the B$^0_\mathrm{s}\to $X(3872)$\phi$ decay</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135263</t>
+          <t>10.1103/PhysRevLett.125.152001</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2318</v>
+        <v>2370</v>
       </c>
       <c r="F93" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A multi-dimensional search for new heavy resonances decaying to boosted WW, WZ, or ZZ boson pairs in the dijet final state at 13 TeV</t>
+          <t>Two-component dark matter and a massless neutrino in a new $B-L$ model</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Restrepo, Diego; Zapata, Óscar</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-020-7773-5</t>
+          <t>10.1103/PhysRevD.99.015038</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2336</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Reconstruction of signal amplitudes in the CMS electromagnetic calorimeter in the presence of overlapping proton-proton interactions</t>
+          <t>Charged current $b \to c \tau \bar{\nu}_\tau$ anomalies in a general $W^\prime$ boson scenario</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Gómez, John D.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>10.1088/1748-0221/15/10/P10002</t>
+          <t>10.1103/PhysRevD.100.093003</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>JINST</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2371</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Search for pair production of vectorlike quarks in the fully hadronic final state</t>
+          <t>Are primordial black holes produced by entropy perturbations in single field inflationary models?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Vallejo-Peña, Sergio Andrés; Romano, Antonio Enea</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.100.072001</t>
+          <t>10.1088/1475-7516/2019/11/015</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>JCAP</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2338</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Measurement of differential cross sections and charge ratios for t-channel single top quark production in proton–proton collisions at $\sqrt{s}=13\,\text {Te}\text {V}$</t>
+          <t>Singlet-Doublet Dirac Dark Matter and Neutrino Masses</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Restrepo, Diego; Rivera, Andrés</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-020-7858-1</t>
+          <t>10.1103/PhysRevD.100.035029</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2339</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Search for dark matter produced with an energetic jet or a hadronically decaying W or Z boson at $ \sqrt{s}=13 $ TeV</t>
+          <t>One-loop Dirac neutrino mass and mixed axion-WIMP dark matter</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Carvajal, Cristian D.R.; Zapata, Óscar</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>10.1007/JHEP07(2017)014</t>
+          <t>10.1103/PhysRevD.99.075009</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2231</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="G98" t="n">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Search for a Narrow Resonance Lighter than 200 GeV Decaying to a Pair of Muons in Proton-Proton Collisions at $\sqrt{s} =$  TeV</t>
+          <t>Bound-state dark matter with Majorana neutrinos</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Restrepo, D.; Zapata, O.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.124.131802</t>
+          <t>10.1016/j.physletb.2019.01.023</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2300</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Observation of Two Excited B$^+_\mathrm{c}$ States and Measurement of the B$^+_\mathrm{c}$(2S) Mass in pp Collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Minimal radiative Dirac neutrino mass models</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David</t>
+          <t>Calle, Julian; Restrepo, Diego; Zapata, Óscar</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.122.132001</t>
+          <t>10.1103/PhysRevD.99.075008</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2279</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G100" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Suppression of Excited $\Upsilon$ States Relative to the Ground State in Pb-Pb Collisions at $\sqrt{s_\mathrm{NN}}$=5.02 TeV</t>
+          <t>Data-driven estimation of the invisible energy of cosmic ray showers with the Pierre Auger Observatory</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Tapia, A.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.120.142301</t>
+          <t>10.1103/PhysRevD.100.082003</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2229</v>
+        <v>390</v>
       </c>
       <c r="F101" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G101" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Search for Charged Higgs Bosons Produced via Vector Boson Fusion and Decaying into a Pair of $W$ and $Z$ Bosons Using $pp$ Collisions at $\sqrt{s}=13\text{ }\text{ }\mathrm{TeV}$</t>
+          <t>Probing homogeneity with standard candles</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Romano, Antonio Enea</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.119.141802</t>
+          <t>10.1088/1475-7516/2019/11/016</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>JCAP</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2226</v>
+        <v>4</v>
       </c>
       <c r="F102" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="G102" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Search for natural supersymmetry in events with top quark pairs and photons in pp collisions at $\sqrt{s} =$ 8 TeV</t>
+          <t>One spectrum to rule them all?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Gallego Cadavid, Alexander; Romano, Antonio Enea</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>10.1007/JHEP03(2018)167</t>
+          <t>10.1016/j.physletb.2019.04.017</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2226</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="n">
         <v>1</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Measurement of the triple-differential dijet cross section in proton-proton collisions at $\sqrt{s}=8\,\text {TeV} $ and constraints on parton distribution functions</t>
+          <t>Measuring the mass, width, and couplings of semi-invisible resonances with the Matrix Element Method</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Betancur, Amalia</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-017-5286-7</t>
+          <t>10.1103/PhysRevD.99.116007</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2228</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G104" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Inclusive Search for a Vector-Like T Quark with Charge $\frac{2}{3}$ in pp Collisions at $\sqrt{s}$ = 8 TeV</t>
+          <t>Study of the $ {\mathrm{B}}^{+}\to \mathrm{J}/\psi \overline{\Lambda}\mathrm{p} $ decay in proton-proton collisions at $ \sqrt{s} $ = 8 TeV</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2014.01.006</t>
+          <t>10.1007/JHEP12(2019)100</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2201</v>
+        <v>2341</v>
       </c>
       <c r="F105" t="n">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Measurements of the pp $\to W\gamma\gamma$ and pp $\to Z\gamma\gamma$ cross sections and limits on anomalous quartic gauge couplings at $ \sqrt{s}=8 $ TeV</t>
+          <t>Search for the production of four top quarks in the single-lepton and opposite-sign dilepton final states in proton-proton collisions at $ \sqrt{s} $ = 13 TeV</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>10.1007/JHEP10(2017)072</t>
+          <t>10.1007/JHEP11(2019)082</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3717,10 +3717,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2228</v>
+        <v>2337</v>
       </c>
       <c r="F106" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G106" t="n">
         <v>10</v>
@@ -3729,7 +3729,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Search for anomalous couplings in boosted $\mathrm{ WW/WZ }\to\ell\nu\mathrm{ q \bar{q} }$ production in proton-proton collisions at $\sqrt{s} =$ 8 TeV</t>
+          <t>Observation of Single Top Quark Production in Association with a $Z$ Boson in Proton-Proton Collisions at $\sqrt {s}$ =13  TeV</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3739,38 +3739,38 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2017.06.009</t>
+          <t>10.1103/PhysRevLett.122.132003</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2235</v>
+        <v>2281</v>
       </c>
       <c r="F107" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G107" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Search for third-generation scalar leptoquarks and heavy right-handed neutrinos in final states with two tau leptons and two jets in proton-proton collisions at $ \sqrt{s}=13 $ TeV</t>
+          <t>Search for supersymmetry using Higgs boson to diphoton decays at $\sqrt{s}$ = 13 TeV</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10.1007/JHEP07(2017)121</t>
+          <t>10.1007/JHEP11(2019)109</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3779,19 +3779,19 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2232</v>
+        <v>2333</v>
       </c>
       <c r="F108" t="n">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="G108" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Performance of the CMS Level-1 trigger in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Search for Higgs and Z boson decays to J/ψ or Y pairs in the four-muon final state in proton-proton collisions at s=13TeV</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3801,59 +3801,59 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>10.1088/1748-0221/15/10/P10017</t>
+          <t>10.1016/j.physletb.2019.134811</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>JINST</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="F109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" t="n">
         <v>2</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Search for anomalous electroweak production of vector boson pairs in association with two jets in proton-proton collisions at 13 TeV</t>
+          <t>Search for anomalous triple gauge couplings in WW and WZ production in lepton + jet events in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2019.134985</t>
+          <t>10.1007/JHEP12(2019)062</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2297</v>
+        <v>2342</v>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G110" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Measurement of the Jet Mass Distribution and Top Quark Mass in Hadronic Decays of Boosted Top Quarks in $pp$ Collisions at $\sqrt{s} =$  TeV</t>
+          <t>Search for long-lived particles using delayed photons in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3863,28 +3863,28 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.124.202001</t>
+          <t>10.1103/PhysRevD.100.112003</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Search for a light charged Higgs boson decaying to a W boson and a CP-odd Higgs boson in final states with e$\mu\mu$ or $\mu\mu\mu$ in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Measurement of the top quark polarization and $\mathrm{t\bar{t}}$ spin correlations using dilepton final states in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3894,28 +3894,28 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.123.131802</t>
+          <t>10.1103/PhysRevD.100.072002</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2334</v>
+        <v>2286</v>
       </c>
       <c r="F112" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Search for dark matter particles produced in association with a Higgs boson in proton-proton collisions at $ \sqrt{\mathrm{s}} $ = 13 TeV</t>
+          <t>Search for low mass vector resonances decaying into quark-antiquark pairs in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3925,28 +3925,28 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10.1007/JHEP03(2020)025</t>
+          <t>10.1103/PhysRevD.100.112007</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="F113" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G113" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Search for an excited lepton that decays via a contact interaction to a lepton and two jets in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Search for long-lived particles using nonprompt jets and missing transverse momentum with proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3956,90 +3956,90 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>10.1007/JHEP05(2020)052</t>
+          <t>10.1016/j.physletb.2019.134876</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Identification of heavy, energetic, hadronically decaying particles using machine-learning techniques</t>
+          <t>Search for supersymmetry in final states with photons and missing transverse momentum in proton-proton collisions at 13 TeV</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ruiz Alvarez, José David</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>10.1088/1748-0221/15/06/P06005</t>
+          <t>10.1007/JHEP06(2019)143</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>JINST</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2304</v>
+        <v>2284</v>
       </c>
       <c r="F115" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G115" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Measurement of the associated production of a $Z$ boson with charm or bottom quark jets in proton-proton collisions at $\sqrt {s}$=13  TeV</t>
+          <t>Measurement of the average very forward energy as a function of the track multiplicity at central pseudorapidities in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ruiz Alvarez, José David</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.102.032007</t>
+          <t>10.1140/epjc/s10052-019-7402-3</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>Eur.Phys.J.C</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Search for the production of four top quarks in the single-lepton and opposite-sign dilepton final states in proton-proton collisions at $ \sqrt{s} $ = 13 TeV</t>
+          <t>Search for supersymmetry in proton-proton collisions at 13 TeV in final states with jets and missing transverse momentum</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>10.1007/JHEP11(2019)082</t>
+          <t>10.1007/JHEP10(2019)244</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4058,50 +4058,50 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2337</v>
+        <v>2326</v>
       </c>
       <c r="F117" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G117" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Measurement of the top quark Yukawa coupling from $\mathrm{t\bar{t}}$ kinematic distributions in the lepton+jets final state in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Observation of Two Excited B$^+_\mathrm{c}$ States and Measurement of the B$^+_\mathrm{c}$(2S) Mass in pp Collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevD.100.072007</t>
+          <t>10.1103/PhysRevLett.122.132001</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Phys.Rev.D</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2328</v>
+        <v>2279</v>
       </c>
       <c r="F118" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Search for direct pair production of supersymmetric partners to the $\tau$ lepton in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
+          <t>Search for dark photons in decays of Higgs bosons produced in association with Z bosons in proton-proton collisions at $ \sqrt{s} $ = 13 TeV</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4111,28 +4111,28 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-020-7739-7</t>
+          <t>10.1007/JHEP10(2019)139</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2338</v>
+        <v>2324</v>
       </c>
       <c r="F119" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Measurement of the $\Upsilon$(1S) pair production cross section and search for resonances decaying to $\Upsilon$(1S)$\mu^+\mu^-$ in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Search for Physics beyond the Standard Model in Events with Overlapping Photons and Jets</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4142,28 +4142,28 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135578</t>
+          <t>10.1103/PhysRevLett.123.241801</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2301</v>
+        <v>2339</v>
       </c>
       <c r="F120" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>The production of isolated photons in PbPb and pp collisions at $\sqrt{s_\mathrm{NN}} =$ 5.02 TeV</t>
+          <t>Search for pair production of vectorlike quarks in the fully hadronic final state</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4173,59 +4173,59 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>10.1007/JHEP07(2020)116</t>
+          <t>10.1103/PhysRevD.100.072001</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2308</v>
+        <v>2338</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Measurements of production cross sections of WZ and same-sign WW boson pairs in association with two jets in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+          <t>Search for supersymmetry with a compressed mass spectrum in the vector boson fusion topology with 1-lepton and 0-lepton final states in proton-proton collisions at $\sqrt{s}=$ 13 TeV</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Jaramillo, Johny; Mejia Guisao, Jhovanny; Ramirez, Felipe; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ruiz Alvarez, José David</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135710</t>
+          <t>10.1007/JHEP08(2019)150</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2384</v>
+        <v>2287</v>
       </c>
       <c r="F122" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Observation of Single Top Quark Production in Association with a $Z$ Boson in Proton-Proton Collisions at $\sqrt {s}$ =13  TeV</t>
+          <t>Search for Low-Mass Quark-Antiquark Resonances Produced in Association with a Photon at $\sqrt {s}$ =13  TeV</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.122.132003</t>
+          <t>10.1103/PhysRevLett.123.231803</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4244,199 +4244,323 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2281</v>
+        <v>2335</v>
       </c>
       <c r="F123" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G123" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Measurement of $\mathrm{t\bar t}$ normalised multi-differential cross sections in pp collisions at $\sqrt s=13$ TeV, and simultaneous determination of the strong coupling strength, top quark pole mass, and parton distribution functions</t>
+          <t>Search for vector-like leptons in multilepton final states in proton-proton collisions at $\sqrt{s}$ = 13 TeV</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ruiz Alvarez, José David</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>10.1140/epjc/s10052-020-7917-7</t>
+          <t>10.1103/PhysRevD.100.052003</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Eur.Phys.J.C</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2282</v>
+        <v>2336</v>
       </c>
       <c r="F124" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G124" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Measurements of $\mathrm{t\bar{t}}H$ Production and the CP Structure of the Yukawa Interaction between the Higgs Boson and Top Quark in the Diphoton Decay Channel</t>
+          <t>Search for MSSM Higgs bosons decaying to μ + μ − in proton-proton collisions at s=13TeV</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ruiz Alvarez, José David</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>10.1103/PhysRevLett.125.061801</t>
+          <t>10.1016/j.physletb.2019.134992</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Phys.Rev.Lett.</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2326</v>
+        <v>2317</v>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G125" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Study of J/$\psi$ meson production inside jets in pp collisions at $\sqrt{s} =$ 8 TeV</t>
+          <t>Search for $W$ boson decays to three charged pions</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ruiz Alvarez, José David</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>10.1016/j.physletb.2020.135409</t>
+          <t>10.1103/PhysRevLett.122.151802</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Phys.Lett.B</t>
+          <t>Phys.Rev.Lett.</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2337</v>
+        <v>2280</v>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Combination of the W boson polarization measurements in top quark decays using ATLAS and CMS data at $\sqrt{s} =$ 8 TeV</t>
+          <t>Search for invisible decays of a Higgs boson produced through vector boson fusion in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+          <t>Ruiz Alvarez, José David</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10.1007/JHEP08(2020)051</t>
+          <t>10.1016/j.physletb.2019.04.025</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>JHEP</t>
+          <t>Phys.Lett.B</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5246</v>
+        <v>2327</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Performance of prototype GE1 ∕ 1 chambers for the CMS muon spectrometer upgrade</t>
+          <t>Measurements of differential Z boson production cross sections in proton-proton collisions at $ \sqrt{s} $ = 13 TeV</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Jaramillo, J.; Ramirez, F.; Ruiz, J.D.; Vanegas, N.</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10.1016/j.nima.2020.164104</t>
+          <t>10.1007/JHEP12(2019)061</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Nucl.Instrum.Meth.A</t>
+          <t>JHEP</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>168</v>
+        <v>2313</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Triple-GEM discharge probability studies at CHARM: simulations and experimental results</t>
+          <t>Search for the production of W$^\pm$W$^\pm$W$^\mp$ events at $\sqrt{s} =$ 13 TeV</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jaramillo, J.; Ramirez, F.; Ruiz, J.D.; Vanegas, N.</t>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>10.1088/1748-0221/15/10/P10013</t>
+          <t>10.1103/PhysRevD.100.012004</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>JINST</t>
+          <t>Phys.Rev.D</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>176</v>
+        <v>2337</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Search for a light charged Higgs boson decaying to a W boson and a CP-odd Higgs boson in final states with e$\mu\mu$ or $\mu\mu\mu$ in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ruiz Alvarez, José David</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>10.1103/PhysRevLett.123.131802</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Phys.Rev.Lett.</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>2334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Search for anomalous electroweak production of vector boson pairs in association with two jets in proton-proton collisions at 13 TeV</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Ruiz Alvarez, José David</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>10.1016/j.physletb.2019.134985</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Phys.Lett.B</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>2297</v>
+      </c>
+      <c r="F131" t="n">
+        <v>30</v>
+      </c>
+      <c r="G131" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Measurement of the top quark Yukawa coupling from $\mathrm{t\bar{t}}$ kinematic distributions in the lepton+jets final state in proton-proton collisions at $\sqrt{s} =$ 13 TeV</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mejia Guisao, Jhovanny; Ruiz Alvarez, José David; Salazar González, Camilo Andrés; Vanegas Arbelaez, Nelson</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>10.1103/PhysRevD.100.072007</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Phys.Rev.D</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>2328</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Mono-$\tau$ Signatures at the LHC Constrain Explanations of $B$-decay Anomalies</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Ruiz-Álvarez, José David</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>10.1103/PhysRevLett.122.131803</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Phys.Rev.Lett.</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>49</v>
+      </c>
+      <c r="G133" t="n">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
